--- a/data/trans_dic/P25A_7_R2-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P25A_7_R2-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con limitación por dolor crónico (pecho; espalda, cuello, hombro, cintura (cervical/lumbar); migrañas/jaquecas/ cefaleas crónicas/ dolor de cabeza frecuente)</t>
+          <t>Población con limitación por dolor crónico (pecho; espalda, cuello, hombro, cintura (cervical/lumbar); migrañas/jaquecas/ cefaleas crónicas/ dolor de cabeza frecuente) (tasa de respuesta: 99,9%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -588,42 +601,72 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>9,96%</t>
+          <t>8,36%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>11,46%</t>
+          <t>13,53%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>16,6%</t>
+          <t>16,53%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>64,98%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>28,78%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>25,14%</t>
+          <t>15,53%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>28,83%</t>
+          <t>33,6%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>64,57%</t>
+          <t>26,93%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>20,52%</t>
+          <t>30,51%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>19,04%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>23,48%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>64,71%</t>
+          <t>32,84%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>22,31%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>20,85%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>24,25%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>25,75%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,98; 15,63</t>
+          <t>4,16; 14,82</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,96; 16,05</t>
+          <t>9,16; 19,32</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>12,26; 21,45</t>
+          <t>12,44; 21,42</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>54,16; 74,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>22,83; 34,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>20,99; 29,74</t>
+          <t>9,2; 22,95</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>23,78; 33,97</t>
+          <t>25,69; 42,47</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>55,24; 71,95</t>
+          <t>21,72; 32,57</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>16,55; 24,7</t>
+          <t>25,87; 35,51</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>16,1; 22,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>19,97; 27,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>57,95; 71,67</t>
+          <t>25,46; 42,17</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>16,81; 27,36</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>17,26; 24,66</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>20,91; 27,87</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>19,81; 31,9</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>7,3%</t>
+          <t>8,46%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>6,44%</t>
+          <t>6,93%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>9,72%</t>
+          <t>9,85%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>62,42%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>20,3%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>18,22%</t>
+          <t>13,15%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>20,33%</t>
+          <t>20,95%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>67,42%</t>
+          <t>18,63%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>13,8%</t>
+          <t>20,55%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>12,2%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>14,81%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>65,27%</t>
+          <t>23,97%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>14,96%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>12,85%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>15,0%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>18,6%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,27; 9,43</t>
+          <t>5,85; 12,04</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,78; 8,56</t>
+          <t>4,93; 9,5</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,12; 13,69</t>
+          <t>7,21; 14,23</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>52,39; 70,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>16,8; 24,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>15,18; 21,45</t>
+          <t>9,29; 22,0</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>16,97; 24,18</t>
+          <t>16,94; 26,16</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>60,72; 73,75</t>
+          <t>15,4; 22,15</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>11,81; 16,0</t>
+          <t>17,48; 24,56</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>10,35; 14,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>12,85; 17,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>59,71; 70,26</t>
+          <t>19,55; 28,93</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>12,11; 17,84</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>10,87; 15,28</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>12,73; 17,59</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>15,89; 23,17</t>
         </is>
       </c>
     </row>
@@ -936,62 +1105,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>10,97%</t>
+          <t>12,14%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>8,71%</t>
+          <t>9,11%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>10,28%</t>
+          <t>10,42%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>55,21%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>12,19%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>10,66%</t>
+          <t>13,73%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>13,07%</t>
+          <t>13,87%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>71,46%</t>
+          <t>11,01%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>11,57%</t>
+          <t>13,1%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>9,71%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>11,71%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>64,61%</t>
+          <t>13,63%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>13,04%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>10,11%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>11,8%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>13,68%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1203,99 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,78; 16,01</t>
+          <t>8,41; 17,47</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,16; 12,51</t>
+          <t>6,35; 12,02</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,29; 14,04</t>
+          <t>7,72; 14,84</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>34,17; 73,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>9,48; 15,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>8,21; 13,66</t>
+          <t>9,18; 20,55</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>10,51; 16,43</t>
+          <t>10,52; 18,3</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>58,3; 81,22</t>
+          <t>8,4; 14,41</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>9,25; 14,53</t>
+          <t>10,39; 16,1</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>7,94; 12,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>9,79; 14,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>52,52; 75,05</t>
+          <t>10,11; 17,33</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>10,41; 15,95</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>8,31; 12,75</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>9,72; 14,08</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>11,2; 17,56</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>8,98%</t>
+          <t>8,6%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>8,26%</t>
+          <t>6,28%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>11,36%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>62,26%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>19,81%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>17,74%</t>
+          <t>12,04%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>20,23%</t>
+          <t>19,32%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>66,74%</t>
+          <t>16,95%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>14,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>13,11%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>15,89%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>64,96%</t>
+          <t>22,66%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>13,84%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>11,29%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>17,06%</t>
         </is>
       </c>
     </row>
@@ -1144,75 +1403,2019 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,33; 11,12</t>
+          <t>6,0; 12,63</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,89; 9,99</t>
+          <t>4,09; 10,39</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>9,49; 13,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>56,02; 68,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>17,6; 22,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>15,94; 19,99</t>
+          <t>8,85; 16,02</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>18,22; 22,33</t>
+          <t>16,08; 23,2</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>61,5; 71,73</t>
+          <t>12,65; 21,26</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>13,15; 16,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>11,91; 14,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>14,4; 17,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>61,04; 68,59</t>
+          <t>17,79; 27,59</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>11,54; 16,24</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>8,96; 13,9</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>14,03; 20,11</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>9,27%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>8,32%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>11,44%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>13,24%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>20,28%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>17,75%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>20,63%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>22,63%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>14,89%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>13,13%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>16,11%</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>18,05%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>7,39; 11,17</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>6,98; 9,9</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>9,66; 13,83</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>10,9; 16,57</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>18,14; 22,54</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>15,88; 19,76</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>18,66; 22,81</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>20,0; 25,47</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>13,5; 16,55</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>11,89; 14,37</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>14,78; 17,79</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>16,35; 19,95</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con limitación por dolor crónico (pecho; espalda, cuello, hombro, cintura (cervical/lumbar); migrañas/jaquecas/ cefaleas crónicas/ dolor de cabeza frecuente) (tasa de respuesta: 99,9%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>111.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>105.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>163.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>28350</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>71750</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>119819</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>69481</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>140918</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>171965</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>272986</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>211936</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>169268</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>243716</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>392805</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>281416</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>14106; 50280</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>48553; 102443</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>90193; 155289</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>41157; 102675</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>107735; 178080</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>138704; 208011</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>231492; 317694</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>164301; 272139</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>127508; 207509</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>201773; 288190</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>338692; 451358</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>216432; 348538</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>104.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>143.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>108.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>143.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>204.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>138.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>77982</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>83250</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>159541</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>140393</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>209492</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>229421</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>308954</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>259667</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>287474</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>312672</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>468495</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>400060</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>53899; 111000</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>59188; 114096</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>116808; 230524</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>99181; 234868</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>169361; 261552</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>189712; 272813</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>262774; 369288</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>211814; 313497</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>232670; 342985</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>264542; 371685</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>397488; 549456</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>341883; 498419</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>127.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>86878</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>77071</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>113988</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>113805</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>106410</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>103680</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>151886</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>122253</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>193288</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>180751</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>265874</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>236058</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>60199; 125043</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>53742; 101681</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>84411; 162219</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>76128; 170348</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>80730; 140381</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>79110; 135672</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>120409; 186601</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>90664; 155484</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>154395; 236559</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>148500; 227958</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>218935; 317105</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>193356; 303169</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>97.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>136.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>120.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>125259</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>53989</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>132294</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>269307</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>129059</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>223166</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>394566</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>183047</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>355460</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>87491; 184041</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>35149; 89338</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>97221; 176053</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>224172; 323462</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>96298; 161891</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>175191; 271708</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>329017; 462910</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>145309; 225417</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>292197; 418950</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>113.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>124.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>161.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>138.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>265.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>288.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>333.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>283.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>378.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>412.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>494.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>421.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>318470</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>286060</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>393348</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>455973</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>726126</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>634125</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>733826</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>817022</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>1044596</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>920185</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>1127174</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>1272995</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>253838; 383449</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>239775; 340225</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>331964; 475595</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>375282; 570398</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>649535; 807212</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>567551; 706229</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>663849; 811375</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>722247; 919616</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>947124; 1160897</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>833588; 1007244</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>1034163; 1244545</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>1153434; 1406847</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
